--- a/biology/Zoologie/Felinae/Felinae.xlsx
+++ b/biology/Zoologie/Felinae/Felinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Félinés (Felinae) constituent la sous-famille de Félidés que l'on nomme couramment les « petits félins », par opposition aux « grands félins » de la sous-famille des Panthérinés, ou aux « félins à dents de sabre » de la sous-famille des Machairodontinés, aujourd'hui disparus. Ce taxon contient les félins ayant un hyoïde ossifié, de telle sorte qu'ils sont capables de ronronner, mais pas de rugir.
 </t>
@@ -513,9 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Espèces actuelles
-La sous-famille des Félinae compte 12 genres et 34 espèces[1].
-Liste des espèces actuelles selon l'ITIS[2], d'après MSW[3] :
+          <t>Espèces actuelles</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-famille des Félinae compte 12 genres et 34 espèces.
+Liste des espèces actuelles selon l'ITIS, d'après MSW :
 Genre Acinonyx Brookes, 1828 :
 Acinonyx jubatus (Schreber, 1775) - le Guépard
 Genre Caracal Schreber, 1776:
@@ -562,49 +579,86 @@
 Genre Puma Jardine, 1834 :
 Puma concolor (Linnaeus, 1771) - le Puma
 Puma yagouaroundi (É. Geoffroy Saint-Hilaire, 1803) - le Jaguarondi
-La classification des félins est en perpétuelle évolution, notamment grâce aux récentes analyses génétiques. Les différents changement de classification ont récemment été résumés dans le rapport final de la "Cat Classification Task Force" en 2017[4]:
+La classification des félins est en perpétuelle évolution, notamment grâce aux récentes analyses génétiques. Les différents changement de classification ont récemment été résumés dans le rapport final de la "Cat Classification Task Force" en 2017:
 - le Chat doré africain (Caracal aurata (Temminck, 1827)) est placé dans le genre Caracal.
 - le Chat De Pallas (Otocolobus manul (Pallas, 1776)) est placé à part dans le genre Otocolobus Brandt, 1842.
 - le Chat des pampas (Leopardus colocola pajeros (Desmarest, 1816)) est classé comme une sous-espèce du Colocolo (Leopardus colocola (Molina, 1782)).
-Genres éteints
-Liste des genres éteint d'après The Paleobiology Database[5]:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Felinae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Felinae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Genres éteints</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des genres éteint d'après The Paleobiology Database:
 †Miracinonyx Adams, 1979
 †Pratifelis Hibbard, 1934
 †Pristifelis Salesa et al., 2012
 †Sivapanthera Kretsoi, 1929
 †Styriofelis Kretzoi, 1929
-Note: La tribu Metailurini, autrefois placés par une étude au sein de la lignée des Félinés[6],[7], est maintenant classée dans la sous-famille des Machairodontinés[8],[9],[10],[11],[12].
+Note: La tribu Metailurini, autrefois placés par une étude au sein de la lignée des Félinés est maintenant classée dans la sous-famille des Machairodontinés.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Felinae</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Felinae</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des genres actuels de félins d'après Johnson et al. (2006)[13] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des genres actuels de félins d'après Johnson et al. (2006) :
 </t>
         </is>
       </c>
